--- a/AfDD_2022_Annex_Table_Tab09.xlsx
+++ b/AfDD_2022_Annex_Table_Tab09.xlsx
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="175">
-  <si>
-    <t>Back to Contents</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="174">
   <si>
     <t>Table 9: Labour force characteristics</t>
   </si>
@@ -1391,11 +1388,9 @@
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
@@ -1407,42 +1402,42 @@
     </row>
     <row r="2" spans="1:10" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="13">
         <v>77.44</v>
@@ -1471,10 +1466,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="16">
         <v>70.55</v>
@@ -1503,10 +1498,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="20">
         <v>52.44</v>
@@ -1535,10 +1530,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="20">
         <v>67.900000000000006</v>
@@ -1567,10 +1562,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>21</v>
       </c>
       <c r="C7" s="20">
         <v>76.349999999999994</v>
@@ -1599,10 +1594,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>23</v>
       </c>
       <c r="C8" s="20">
         <v>78.069999999999993</v>
@@ -1631,10 +1626,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="C9" s="20">
         <v>59.38</v>
@@ -1663,10 +1658,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>27</v>
       </c>
       <c r="C10" s="20">
         <v>56.08</v>
@@ -1695,10 +1690,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="C11" s="16">
         <v>74.5</v>
@@ -1727,10 +1722,10 @@
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>31</v>
       </c>
       <c r="C12" s="23">
         <v>83.07</v>
@@ -1759,10 +1754,10 @@
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>33</v>
       </c>
       <c r="C13" s="27">
         <v>69.578000000000003</v>
@@ -1791,10 +1786,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="C14" s="20">
         <v>79.22</v>
@@ -1823,10 +1818,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="C15" s="20">
         <v>76.11</v>
@@ -1855,10 +1850,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>39</v>
       </c>
       <c r="C16" s="20">
         <v>71.81</v>
@@ -1887,10 +1882,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>41</v>
       </c>
       <c r="C17" s="13">
         <v>70.59</v>
@@ -1919,10 +1914,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>43</v>
       </c>
       <c r="C18" s="13">
         <v>69.39</v>
@@ -1951,10 +1946,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="C19" s="16">
         <v>63.59</v>
@@ -1983,10 +1978,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>46</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>47</v>
       </c>
       <c r="C20" s="13">
         <v>61.96</v>
@@ -2015,10 +2010,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>49</v>
       </c>
       <c r="C21" s="13">
         <v>52.9</v>
@@ -2047,10 +2042,10 @@
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="C22" s="20">
         <v>57.77</v>
@@ -2079,10 +2074,10 @@
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="27">
         <v>67.037777777777805</v>
@@ -2111,10 +2106,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="C24" s="20">
         <v>45.54</v>
@@ -2143,10 +2138,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>56</v>
       </c>
       <c r="C25" s="20">
         <v>60.15</v>
@@ -2175,10 +2170,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>57</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>58</v>
       </c>
       <c r="C26" s="20">
         <v>78.94</v>
@@ -2207,10 +2202,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>60</v>
       </c>
       <c r="C27" s="20">
         <v>79.290000000000006</v>
@@ -2239,10 +2234,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="C28" s="20">
         <v>74.239999999999995</v>
@@ -2271,10 +2266,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>64</v>
       </c>
       <c r="C29" s="20">
         <v>85.92</v>
@@ -2303,10 +2298,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>66</v>
       </c>
       <c r="C30" s="20">
         <v>57.88</v>
@@ -2335,10 +2330,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="C31" s="20">
         <v>83.55</v>
@@ -2367,42 +2362,42 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="C32" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>71</v>
-      </c>
       <c r="D32" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="C33" s="20">
         <v>47.74</v>
@@ -2431,10 +2426,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="C34" s="16">
         <v>72.27</v>
@@ -2463,10 +2458,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="C35" s="20">
         <v>48.53</v>
@@ -2495,10 +2490,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="C36" s="20">
         <v>83.42</v>
@@ -2527,10 +2522,10 @@
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>80</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>81</v>
       </c>
       <c r="C37" s="20">
         <v>70.040000000000006</v>
@@ -2559,10 +2554,10 @@
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="27">
         <v>68.27</v>
@@ -2591,10 +2586,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>83</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>84</v>
       </c>
       <c r="C39" s="13">
         <v>42.53</v>
@@ -2623,10 +2618,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>86</v>
       </c>
       <c r="C40" s="20">
         <v>44.83</v>
@@ -2655,10 +2650,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="30" t="s">
         <v>87</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>88</v>
       </c>
       <c r="C41" s="13">
         <v>49.7</v>
@@ -2687,10 +2682,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="30" t="s">
         <v>89</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>90</v>
       </c>
       <c r="C42" s="13">
         <v>45.37</v>
@@ -2719,10 +2714,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>92</v>
       </c>
       <c r="C43" s="20">
         <v>45.37</v>
@@ -2751,10 +2746,10 @@
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="C44" s="20">
         <v>46.44</v>
@@ -2783,10 +2778,10 @@
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="27">
         <v>45.706666666666699</v>
@@ -2815,10 +2810,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>96</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>97</v>
       </c>
       <c r="C46" s="20">
         <v>70.760000000000005</v>
@@ -2847,10 +2842,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="C47" s="20">
         <v>66.47</v>
@@ -2879,10 +2874,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>101</v>
       </c>
       <c r="C48" s="20">
         <v>60.38</v>
@@ -2911,10 +2906,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>103</v>
       </c>
       <c r="C49" s="20">
         <v>53.69</v>
@@ -2943,10 +2938,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="C50" s="20">
         <v>59.28</v>
@@ -2975,10 +2970,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>107</v>
       </c>
       <c r="C51" s="16">
         <v>67.81</v>
@@ -3007,10 +3002,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>109</v>
       </c>
       <c r="C52" s="20">
         <v>61.39</v>
@@ -3039,10 +3034,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>111</v>
       </c>
       <c r="C53" s="20">
         <v>72.069999999999993</v>
@@ -3071,10 +3066,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="C54" s="20">
         <v>76.13</v>
@@ -3103,10 +3098,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>115</v>
       </c>
       <c r="C55" s="20">
         <v>69.31</v>
@@ -3135,10 +3130,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>117</v>
       </c>
       <c r="C56" s="20">
         <v>72.150000000000006</v>
@@ -3167,10 +3162,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="30" t="s">
         <v>118</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>119</v>
       </c>
       <c r="C57" s="13">
         <v>55.87</v>
@@ -3199,10 +3194,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="C58" s="20">
         <v>45.65</v>
@@ -3231,10 +3226,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>123</v>
       </c>
       <c r="C59" s="20">
         <v>57.89</v>
@@ -3263,10 +3258,10 @@
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="C60" s="16">
         <v>58.81</v>
@@ -3295,10 +3290,10 @@
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C61" s="27">
         <v>63.177333333333401</v>
@@ -3327,10 +3322,10 @@
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C62" s="33">
         <v>64.311886792452896</v>
@@ -3359,10 +3354,10 @@
     </row>
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" s="33">
         <v>61.724559999999997</v>
@@ -3391,10 +3386,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C64" s="37">
         <v>65.066551724137994</v>
@@ -3423,10 +3418,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C65" s="40">
         <v>59.824666666666701</v>
@@ -3455,10 +3450,10 @@
     </row>
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" s="43">
         <v>62.494943820224698</v>
@@ -3487,10 +3482,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C67" s="40">
         <v>65.097999999999999</v>
@@ -3519,10 +3514,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C68" s="40">
         <v>58.6464</v>
@@ -3551,10 +3546,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C69" s="40">
         <v>77.123333333333406</v>
@@ -3583,10 +3578,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C70" s="40">
         <v>69.484545454545497</v>
@@ -3615,10 +3610,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C71" s="40">
         <v>63.177333333333401</v>
@@ -3647,10 +3642,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C72" s="40">
         <v>66.400000000000006</v>
@@ -3679,10 +3674,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C73" s="40">
         <v>68.808666666666696</v>
@@ -3711,10 +3706,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C74" s="40">
         <v>45.881999999999998</v>
@@ -3743,10 +3738,10 @@
     </row>
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C75" s="43">
         <v>67.948333333333295</v>
@@ -3775,10 +3770,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C76" s="40">
         <v>69.271000000000001</v>
@@ -3807,10 +3802,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C77" s="40">
         <v>64.581666666666706</v>
@@ -3839,10 +3834,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C78" s="40">
         <v>58.7462962962963</v>
@@ -3871,10 +3866,10 @@
     </row>
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C79" s="43">
         <v>61.379473684210502</v>
@@ -3903,10 +3898,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C80" s="40">
         <v>58.4166666666667</v>
@@ -3935,10 +3930,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C81" s="40">
         <v>62.158999999999999</v>
@@ -3967,10 +3962,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C82" s="40">
         <v>65.517727272727299</v>
@@ -3999,10 +3994,10 @@
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C83" s="43">
         <v>61.641809523809499</v>
@@ -4031,10 +4026,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B84" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C84" s="40">
         <v>69.539565217391299</v>
@@ -4063,10 +4058,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C85" s="40">
         <v>53.075000000000003</v>
@@ -4095,10 +4090,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C86" s="40">
         <v>60.898695652173899</v>
@@ -4127,10 +4122,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C87" s="40">
         <v>62.888275862069001</v>
@@ -4159,10 +4154,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C88" s="40">
         <v>58.35</v>
@@ -4191,10 +4186,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C89" s="40">
         <v>60.022619047619102</v>
@@ -4223,10 +4218,10 @@
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C90" s="43">
         <v>63.2777551020408</v>
@@ -4255,10 +4250,10 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C91" s="40">
         <v>67.512424242424302</v>
@@ -4287,10 +4282,10 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C92" s="40">
         <v>67.155000000000001</v>
@@ -4319,10 +4314,10 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B93" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C93" s="40">
         <v>58.728000000000002</v>
@@ -4351,10 +4346,10 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B94" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C94" s="40">
         <v>63.551363636363703</v>
@@ -4383,10 +4378,10 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C95" s="40">
         <v>72.469374999999999</v>
@@ -4415,10 +4410,10 @@
     </row>
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C96" s="43">
         <v>61.740625000000001</v>
@@ -4447,10 +4442,10 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B97" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="40">
         <v>66.764864864864904</v>
@@ -4479,10 +4474,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B98" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C98" s="40">
         <v>59.344736842105299</v>
@@ -4511,10 +4506,10 @@
     </row>
     <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C99" s="43">
         <v>58.9130769230769</v>
@@ -4555,27 +4550,27 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -4583,27 +4578,27 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4613,7 +4608,6 @@
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B112" r:id="rId4"/>
     <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents"/>
     <hyperlink ref="B107" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AfDD_2022_Annex_Table_Tab09.xlsx
+++ b/AfDD_2022_Annex_Table_Tab09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -526,6 +526,9 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
+    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+  </si>
+  <si>
     <t>Source: International Labour Organization - ILOSTAT (retrieved 14/11/2021).</t>
   </si>
   <si>
@@ -538,88 +541,10 @@
     <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in compressed csv format, including historic data back to 2000, click here.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the first of two data files.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the second of two data files.</t>
-    </r>
+    <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
+  </si>
+  <si>
+    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
 </sst>
 </file>
@@ -631,7 +556,7 @@
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,15 +672,6 @@
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1375,7 +1291,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -4568,18 +4484,18 @@
         <v>167</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B107" s="51" t="s">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A105" s="48" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="51"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="2" t="s">
+      <c r="B108" s="51" t="s">
         <v>169</v>
       </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B109" s="51"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
@@ -4592,25 +4508,27 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>172</v>
-      </c>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="2" t="s">
         <v>173</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1"/>
-    <hyperlink ref="B110" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B111" r:id="rId3"/>
-    <hyperlink ref="B112" r:id="rId4"/>
-    <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B107" r:id="rId6"/>
+    <hyperlink ref="B110" r:id="rId1"/>
+    <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
+    <hyperlink ref="B114" r:id="rId3"/>
+    <hyperlink ref="B113" r:id="rId4"/>
+    <hyperlink ref="B108" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/AfDD_2022_Annex_Table_Tab09.xlsx
+++ b/AfDD_2022_Annex_Table_Tab09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab09.xlsx
+++ b/AfDD_2022_Annex_Table_Tab09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab09.xlsx
+++ b/AfDD_2022_Annex_Table_Tab09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab09.xlsx
+++ b/AfDD_2022_Annex_Table_Tab09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Source: International Labour Organization - ILOSTAT (retrieved 14/11/2021).</t>
@@ -4204,28 +4204,28 @@
         <v>156</v>
       </c>
       <c r="C92" s="40">
-        <v>67.155000000000001</v>
+        <v>66.904545454545499</v>
       </c>
       <c r="D92" s="40">
-        <v>56.12</v>
+        <v>55.679090909090903</v>
       </c>
       <c r="E92" s="41">
-        <v>78.144166666666706</v>
+        <v>78.080909090909103</v>
       </c>
       <c r="F92" s="40">
-        <v>65.320128442967402</v>
+        <v>65.090557418675104</v>
       </c>
       <c r="G92" s="40">
-        <v>36.2048392760383</v>
+        <v>36.208797378927102</v>
       </c>
       <c r="H92" s="40">
-        <v>3.6394427405568202</v>
+        <v>3.6423438072266401</v>
       </c>
       <c r="I92" s="40">
-        <v>42.927324336343801</v>
+        <v>42.907316191777902</v>
       </c>
       <c r="J92" s="41">
-        <v>17.228387297519799</v>
+        <v>17.241536266863498</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">

--- a/AfDD_2022_Annex_Table_Tab09.xlsx
+++ b/AfDD_2022_Annex_Table_Tab09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab09.xlsx
+++ b/AfDD_2022_Annex_Table_Tab09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab09.xlsx
+++ b/AfDD_2022_Annex_Table_Tab09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab09.xlsx
+++ b/AfDD_2022_Annex_Table_Tab09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,7 @@
     <t>Source: International Labour Organization - ILOSTAT (retrieved 14/11/2021).</t>
   </si>
   <si>
-    <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
@@ -4526,7 +4526,7 @@
     <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
     <hyperlink ref="B114" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B108" r:id="rId5"/>
+    <hyperlink ref="B108" r:id="rId5" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId6"/>
